--- a/Template/Template_Employee_Probation_Payroll.xlsx
+++ b/Template/Template_Employee_Probation_Payroll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD0BFA-B742-4551-A87E-99B7C4193F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E8FD2E-515F-4911-86B7-3C22B0295A89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2D0FE3F-7E70-40E0-8838-DC58BEFFAED2}"/>
   </bookViews>
@@ -31,18 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
     <t>รหัส</t>
-  </si>
-  <si>
-    <t>ชื่อ-นามสกุล</t>
-  </si>
-  <si>
-    <t>Name - Surname</t>
   </si>
   <si>
     <t>ตำแหน่ง</t>
@@ -109,6 +103,18 @@
   </si>
   <si>
     <t>วันที่มีผลบังคับใช้</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -207,6 +213,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -214,8 +264,23 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,23 +291,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{A769DD45-3C37-42ED-B25F-6BF33830EF71}"/>
@@ -563,14 +629,18 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.85546875" customWidth="1"/>
@@ -587,156 +657,162 @@
     <col min="21" max="21" width="22.28515625" customWidth="1"/>
     <col min="22" max="22" width="23.7109375" customWidth="1"/>
     <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" customWidth="1"/>
+    <col min="24" max="24" width="35.85546875" customWidth="1"/>
     <col min="25" max="25" width="27.7109375" customWidth="1"/>
     <col min="26" max="26" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="23.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" ht="40.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="O2:Z2"/>
+  <mergeCells count="13">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E3"/>
-    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
